--- a/tests/test_data/info_failure.xlsx
+++ b/tests/test_data/info_failure.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/manuel/OneDrive - Montanuniversität Leoben/Arbeit/python/mac/slag-kinetic/tests/test_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unileobenacat-my.sharepoint.com/personal/manuel_leuchtenmueller_unileoben_ac_at/Documents/Arbeit/python/mac/slag-kinetic/tests/test_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C37F76C-10F5-0F48-9CAA-8246335DA642}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="6_{1561FD8E-BD51-3B45-925D-CAD43D01CEEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15680" xr2:uid="{6507038F-5803-B441-9EE6-10F906E26E98}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15620" xr2:uid="{6507038F-5803-B441-9EE6-10F906E26E98}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,9 +39,6 @@
     <t>Should Ignore</t>
   </si>
   <si>
-    <t>initial mass</t>
-  </si>
-  <si>
     <t>time</t>
   </si>
   <si>
@@ -76,6 +73,9 @@
   </si>
   <si>
     <t>CaO</t>
+  </si>
+  <si>
+    <t>initial_mass</t>
   </si>
 </sst>
 </file>
@@ -430,7 +430,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -440,27 +440,27 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" t="s">
         <v>12</v>
-      </c>
-      <c r="F1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2">
         <v>75</v>
@@ -477,10 +477,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3">
         <v>85</v>
@@ -497,10 +497,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -517,10 +517,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5">
         <v>0</v>
